--- a/SmartVillages/Client/wwwroot/table.xlsx
+++ b/SmartVillages/Client/wwwroot/table.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\source\repos\SmartVillages\SmartVillages\Client\wwwroot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4205E4-6678-4640-B0DB-E3BA52840273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
-    <sheet name="List3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Biljka</t>
   </si>
@@ -198,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,27 +237,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,44 +267,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -325,12 +334,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -369,1112 +378,1036 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>27</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>28</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B49" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>